--- a/data/trans_orig/P14B16-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14B16-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74F79D34-AA73-494B-9391-8B9DF3774EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BE5DEDE-F716-435A-8605-647BFDF7B05F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{73FFC071-2E7C-48B5-AE56-E385E61755B0}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{75392BD7-2976-4C59-8C67-5F15A5AD7F95}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="389">
   <si>
     <t>Población cuya alergia crónica le limita en 2012 (Tasa respuesta: 6,15%)</t>
   </si>
@@ -76,1141 +76,1135 @@
     <t>9,68%</t>
   </si>
   <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
   </si>
   <si>
     <t>25,0%</t>
   </si>
   <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>57,69%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>73,05%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>63,02%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>67,06%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>69,04%</t>
+  </si>
+  <si>
+    <t>59,54%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>52,47%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>66,08%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>78,7%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>64,17%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>60,53%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>51,73%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>66,53%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>69,88%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población cuya alergia crónica le limita en 2015 (Tasa respuesta: 6,49%)</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>61,62%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
     <t>13,25%</t>
   </si>
   <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>56,5%</t>
   </si>
   <si>
     <t>86,75%</t>
   </si>
   <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>72,96%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>73,54%</t>
-  </si>
-  <si>
-    <t>63,69%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>67,06%</t>
-  </si>
-  <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>69,04%</t>
-  </si>
-  <si>
-    <t>59,14%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>76,98%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>70,01%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>63,39%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>58,21%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>65,58%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>67,39%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>67,78%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>54,69%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>62,18%</t>
+  </si>
+  <si>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>60,61%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>74,54%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>66,35%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>69,61%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>70,35%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>68,07%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>Población cuya alergia crónica le limita en 2023 (Tasa respuesta: 10,58%)</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>59,85%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>62,28%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>73,16%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
   </si>
   <si>
     <t>15,59%</t>
   </si>
   <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>49,24%</t>
-  </si>
-  <si>
-    <t>52,47%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
   </si>
   <si>
     <t>84,41%</t>
   </si>
   <si>
-    <t>66,08%</t>
-  </si>
-  <si>
-    <t>50,76%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>71,43%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>49,02%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>64,17%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>60,53%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>51,73%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>69,88%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>65,0%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población cuya alergia crónica le limita en 2015 (Tasa respuesta: 6,49%)</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>43,04%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>56,96%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>70,93%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>70,24%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>65,82%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
-  </si>
-  <si>
-    <t>59,1%</t>
-  </si>
-  <si>
-    <t>74,62%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>67,39%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>61,89%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>70,16%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>55,79%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>54,77%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>62,18%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>60,61%</t>
-  </si>
-  <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>49,64%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>66,35%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>64,32%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>Población cuya alergia crónica le limita en 2023 (Tasa respuesta: 10,58%)</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>59,67%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>72,05%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>68,21%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>69,0%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>72,88%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
   </si>
   <si>
     <t>5,85%</t>
   </si>
   <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
   </si>
   <si>
     <t>23,36%</t>
   </si>
   <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
   </si>
   <si>
     <t>17,9%</t>
   </si>
   <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
   </si>
   <si>
     <t>94,15%</t>
   </si>
   <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
   </si>
   <si>
     <t>76,64%</t>
   </si>
   <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
   </si>
   <si>
     <t>82,1%</t>
   </si>
   <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
   </si>
   <si>
     <t>15,01%</t>
   </si>
   <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
   </si>
   <si>
     <t>19,95%</t>
   </si>
   <si>
-    <t>23,6%</t>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
   </si>
   <si>
     <t>17,82%</t>
   </si>
   <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
   </si>
   <si>
     <t>84,99%</t>
   </si>
   <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
   </si>
   <si>
     <t>80,05%</t>
   </si>
   <si>
-    <t>76,4%</t>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
   </si>
   <si>
     <t>82,18%</t>
   </si>
   <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
   </si>
 </sst>
 </file>
@@ -1622,7 +1616,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05E45213-BC34-4A1D-8250-14F368A4C99C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AB5BE7B-F663-4A3E-AD20-6B8E7C477B2D}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1907,7 +1901,7 @@
         <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="H7" s="7">
         <v>13</v>
@@ -1916,13 +1910,13 @@
         <v>12720</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>24</v>
@@ -1931,13 +1925,13 @@
         <v>24944</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1952,13 +1946,13 @@
         <v>32257</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>34</v>
@@ -1967,13 +1961,13 @@
         <v>37076</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>67</v>
@@ -1982,13 +1976,13 @@
         <v>69333</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2044,7 +2038,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2056,13 +2050,13 @@
         <v>11493</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>23</v>
@@ -2071,13 +2065,13 @@
         <v>24563</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>33</v>
@@ -2086,13 +2080,13 @@
         <v>36056</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2107,13 +2101,13 @@
         <v>30371</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>45</v>
@@ -2122,13 +2116,13 @@
         <v>50015</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>73</v>
@@ -2137,13 +2131,13 @@
         <v>80386</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2199,7 +2193,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2211,13 +2205,13 @@
         <v>6537</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -2226,13 +2220,13 @@
         <v>11049</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -2241,13 +2235,13 @@
         <v>17586</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2262,13 +2256,13 @@
         <v>7217</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>24</v>
@@ -2277,13 +2271,13 @@
         <v>27046</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>31</v>
@@ -2292,13 +2286,13 @@
         <v>34263</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2354,7 +2348,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2366,13 +2360,13 @@
         <v>6498</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -2381,13 +2375,13 @@
         <v>5044</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -2396,13 +2390,13 @@
         <v>11543</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2417,13 +2411,13 @@
         <v>8427</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>14</v>
@@ -2432,13 +2426,13 @@
         <v>14609</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>22</v>
@@ -2447,13 +2441,13 @@
         <v>23035</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2509,7 +2503,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2521,13 +2515,13 @@
         <v>12800</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>13</v>
@@ -2536,13 +2530,13 @@
         <v>14230</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>22</v>
@@ -2551,13 +2545,13 @@
         <v>27030</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2572,13 +2566,13 @@
         <v>7147</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>21</v>
@@ -2587,13 +2581,13 @@
         <v>21824</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>28</v>
@@ -2602,13 +2596,13 @@
         <v>28971</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2676,13 +2670,13 @@
         <v>53300</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>72</v>
@@ -2691,13 +2685,13 @@
         <v>76889</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M22" s="7">
         <v>117</v>
@@ -2706,13 +2700,13 @@
         <v>130189</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2727,13 +2721,13 @@
         <v>120380</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H23" s="7">
         <v>166</v>
@@ -2742,10 +2736,10 @@
         <v>178426</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>138</v>
@@ -2841,7 +2835,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DD7003D-2EF0-4256-92CB-F162DD565CC5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A25434CB-7709-420E-9C58-677C297B2E70}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2971,7 +2965,7 @@
         <v>145</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H4" s="7">
         <v>13</v>
@@ -3019,7 +3013,7 @@
         <v>152</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>153</v>
@@ -3263,7 +3257,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3293,10 +3287,10 @@
         <v>181</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>96</v>
+        <v>182</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M10" s="7">
         <v>25</v>
@@ -3305,13 +3299,13 @@
         <v>24789</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3326,13 +3320,13 @@
         <v>26204</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H11" s="7">
         <v>45</v>
@@ -3341,13 +3335,13 @@
         <v>46675</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>106</v>
+        <v>192</v>
       </c>
       <c r="M11" s="7">
         <v>68</v>
@@ -3356,13 +3350,13 @@
         <v>72880</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3418,7 +3412,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3430,13 +3424,13 @@
         <v>2136</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -3445,13 +3439,13 @@
         <v>16340</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M13" s="7">
         <v>17</v>
@@ -3460,13 +3454,13 @@
         <v>18476</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3481,13 +3475,13 @@
         <v>20014</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H14" s="7">
         <v>31</v>
@@ -3496,13 +3490,13 @@
         <v>33775</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M14" s="7">
         <v>49</v>
@@ -3511,13 +3505,13 @@
         <v>53789</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3573,7 +3567,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3585,13 +3579,13 @@
         <v>8157</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -3600,13 +3594,13 @@
         <v>15016</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
@@ -3615,13 +3609,13 @@
         <v>23172</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3636,13 +3630,13 @@
         <v>10974</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H17" s="7">
         <v>22</v>
@@ -3651,13 +3645,13 @@
         <v>24688</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M17" s="7">
         <v>32</v>
@@ -3666,13 +3660,13 @@
         <v>35663</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3728,7 +3722,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3740,13 +3734,13 @@
         <v>4360</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -3755,13 +3749,13 @@
         <v>10598</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M19" s="7">
         <v>14</v>
@@ -3770,13 +3764,13 @@
         <v>14958</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3791,13 +3785,13 @@
         <v>8598</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H20" s="7">
         <v>20</v>
@@ -3806,13 +3800,13 @@
         <v>22805</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M20" s="7">
         <v>30</v>
@@ -3821,13 +3815,13 @@
         <v>31403</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3895,13 +3889,13 @@
         <v>39933</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H22" s="7">
         <v>77</v>
@@ -3910,13 +3904,13 @@
         <v>83494</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>252</v>
+        <v>110</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M22" s="7">
         <v>116</v>
@@ -3925,13 +3919,13 @@
         <v>123427</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3946,13 +3940,13 @@
         <v>127536</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H23" s="7">
         <v>189</v>
@@ -3961,13 +3955,13 @@
         <v>198077</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>262</v>
+        <v>120</v>
       </c>
       <c r="M23" s="7">
         <v>310</v>
@@ -4060,7 +4054,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B71A73A-D35D-4FAA-A604-8DD7BE1F44A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB47B3C0-650B-4E3E-92AB-646F0327118C}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4482,7 +4476,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4637,7 +4631,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4670,7 +4664,7 @@
         <v>325</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>326</v>
+        <v>218</v>
       </c>
       <c r="M13" s="7">
         <v>40</v>
@@ -4679,13 +4673,13 @@
         <v>29057</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4700,13 +4694,13 @@
         <v>59488</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="H14" s="7">
         <v>137</v>
@@ -4715,13 +4709,13 @@
         <v>89846</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>335</v>
       </c>
       <c r="M14" s="7">
         <v>195</v>
@@ -4730,13 +4724,13 @@
         <v>149334</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4792,7 +4786,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4804,13 +4798,13 @@
         <v>7019</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="H16" s="7">
         <v>28</v>
@@ -4819,13 +4813,13 @@
         <v>16758</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="M16" s="7">
         <v>35</v>
@@ -4834,13 +4828,13 @@
         <v>23777</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>345</v>
+        <v>147</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4855,13 +4849,13 @@
         <v>39873</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H17" s="7">
         <v>92</v>
@@ -4870,13 +4864,13 @@
         <v>54798</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="M17" s="7">
         <v>139</v>
@@ -4885,13 +4879,13 @@
         <v>94671</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>354</v>
+        <v>156</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4947,7 +4941,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4959,13 +4953,13 @@
         <v>2233</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="H19" s="7">
         <v>32</v>
@@ -4974,13 +4968,13 @@
         <v>19673</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="M19" s="7">
         <v>36</v>
@@ -4989,13 +4983,13 @@
         <v>21906</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5010,13 +5004,13 @@
         <v>35946</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="H20" s="7">
         <v>120</v>
@@ -5025,13 +5019,13 @@
         <v>64556</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M20" s="7">
         <v>173</v>
@@ -5040,13 +5034,13 @@
         <v>100502</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5114,13 +5108,13 @@
         <v>49112</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="H22" s="7">
         <v>123</v>
@@ -5129,13 +5123,13 @@
         <v>85947</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>90</v>
+        <v>375</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="M22" s="7">
         <v>165</v>
@@ -5144,13 +5138,13 @@
         <v>135060</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5165,13 +5159,13 @@
         <v>278140</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="H23" s="7">
         <v>500</v>
@@ -5180,13 +5174,13 @@
         <v>344813</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>100</v>
+        <v>385</v>
       </c>
       <c r="M23" s="7">
         <v>760</v>
@@ -5195,13 +5189,13 @@
         <v>622953</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14B16-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14B16-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BE5DEDE-F716-435A-8605-647BFDF7B05F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C00C0BF9-E5AE-4F27-8AC3-521D1A004D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{75392BD7-2976-4C59-8C67-5F15A5AD7F95}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BEC157E1-4ED1-48D4-894E-946B47C2B8F1}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="397">
   <si>
     <t>Población cuya alergia crónica le limita en 2012 (Tasa respuesta: 6,15%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>9,68%</t>
   </si>
   <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
   </si>
   <si>
     <t>25,0%</t>
   </si>
   <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
   </si>
   <si>
     <t>17,18%</t>
   </si>
   <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>90,32%</t>
   </si>
   <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
+    <t>77,66%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
   </si>
   <si>
     <t>75,0%</t>
   </si>
   <si>
-    <t>57,69%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
+    <t>58,9%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
   </si>
   <si>
     <t>82,82%</t>
   </si>
   <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
+    <t>72,03%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,49 +139,55 @@
     <t>27,48%</t>
   </si>
   <si>
-    <t>14,68%</t>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
   </si>
   <si>
     <t>25,54%</t>
   </si>
   <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
   </si>
   <si>
     <t>26,46%</t>
   </si>
   <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
   </si>
   <si>
     <t>72,52%</t>
   </si>
   <si>
-    <t>85,32%</t>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
   </si>
   <si>
     <t>74,46%</t>
   </si>
   <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
   </si>
   <si>
     <t>73,54%</t>
   </si>
   <si>
-    <t>63,02%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
+    <t>63,43%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -190,55 +196,55 @@
     <t>27,45%</t>
   </si>
   <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>46,02%</t>
   </si>
   <si>
     <t>32,94%</t>
   </si>
   <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
   </si>
   <si>
     <t>30,96%</t>
   </si>
   <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
   </si>
   <si>
     <t>72,55%</t>
   </si>
   <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
+    <t>53,98%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
   </si>
   <si>
     <t>67,06%</t>
   </si>
   <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
+    <t>56,13%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
   </si>
   <si>
     <t>69,04%</t>
   </si>
   <si>
-    <t>59,54%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -247,55 +253,55 @@
     <t>47,53%</t>
   </si>
   <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
   </si>
   <si>
     <t>29,0%</t>
   </si>
   <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
   </si>
   <si>
     <t>33,92%</t>
   </si>
   <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
   </si>
   <si>
     <t>52,47%</t>
   </si>
   <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
   </si>
   <si>
     <t>71,0%</t>
   </si>
   <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
+    <t>54,11%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
   </si>
   <si>
     <t>66,08%</t>
   </si>
   <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
+    <t>51,28%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -304,55 +310,49 @@
     <t>43,54%</t>
   </si>
   <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
   </si>
   <si>
     <t>25,67%</t>
   </si>
   <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
+    <t>10,1%</t>
   </si>
   <si>
     <t>33,38%</t>
   </si>
   <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
   </si>
   <si>
     <t>56,46%</t>
   </si>
   <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>78,7%</t>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
   </si>
   <si>
     <t>74,33%</t>
   </si>
   <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
+    <t>89,9%</t>
   </si>
   <si>
     <t>66,62%</t>
   </si>
   <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -361,736 +361,760 @@
     <t>64,17%</t>
   </si>
   <si>
-    <t>37,39%</t>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>55,3%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>63,06%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>58,36%</t>
+  </si>
+  <si>
+    <t>60,53%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>51,73%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
+  </si>
+  <si>
+    <t>69,88%</t>
+  </si>
+  <si>
+    <t>63,34%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población cuya alergia crónica le limita en 2016 (Tasa respuesta: 6,49%)</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>61,84%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>70,66%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>70,54%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>70,34%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>67,39%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>62,96%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>66,71%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>62,18%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>60,61%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>63,55%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>46,7%</t>
+  </si>
+  <si>
+    <t>66,35%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
   </si>
   <si>
     <t>84,52%</t>
   </si>
   <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>62,74%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>60,53%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>51,73%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>66,53%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>61,9%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>69,88%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población cuya alergia crónica le limita en 2015 (Tasa respuesta: 6,49%)</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>70,35%</t>
+  </si>
+  <si>
+    <t>64,72%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>67,6%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>Población cuya alergia crónica le limita en 2023 (Tasa respuesta: 10,58%)</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>59,85%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>62,28%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>73,16%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
   </si>
   <si>
     <t>20,07%</t>
   </si>
   <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
   </si>
   <si>
     <t>79,93%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>61,62%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>56,5%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>70,01%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>69,3%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
-  </si>
-  <si>
-    <t>58,21%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>74,62%</t>
-  </si>
-  <si>
-    <t>65,58%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>67,39%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>67,78%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>54,69%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>62,18%</t>
-  </si>
-  <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>60,61%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>74,54%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>49,64%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>66,35%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>68,07%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>Población cuya alergia crónica le limita en 2023 (Tasa respuesta: 10,58%)</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>62,28%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>73,16%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>72,21%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
   </si>
   <si>
     <t>72,8%</t>
@@ -1616,7 +1640,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AB5BE7B-F663-4A3E-AD20-6B8E7C477B2D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB2F7CC7-733B-4607-BCCA-50B43F0CC69D}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1901,7 +1925,7 @@
         <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>13</v>
@@ -1910,13 +1934,13 @@
         <v>12720</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>24</v>
@@ -1925,13 +1949,13 @@
         <v>24944</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1946,13 +1970,13 @@
         <v>32257</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>34</v>
@@ -1961,13 +1985,13 @@
         <v>37076</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>67</v>
@@ -1976,13 +2000,13 @@
         <v>69333</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2038,7 +2062,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2050,13 +2074,13 @@
         <v>11493</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>23</v>
@@ -2065,13 +2089,13 @@
         <v>24563</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>33</v>
@@ -2080,13 +2104,13 @@
         <v>36056</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2101,13 +2125,13 @@
         <v>30371</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>45</v>
@@ -2116,13 +2140,13 @@
         <v>50015</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>73</v>
@@ -2131,13 +2155,13 @@
         <v>80386</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2193,7 +2217,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2205,13 +2229,13 @@
         <v>6537</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -2220,13 +2244,13 @@
         <v>11049</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -2235,13 +2259,13 @@
         <v>17586</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2256,13 +2280,13 @@
         <v>7217</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>24</v>
@@ -2271,13 +2295,13 @@
         <v>27046</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>31</v>
@@ -2286,13 +2310,13 @@
         <v>34263</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2348,7 +2372,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2360,13 +2384,13 @@
         <v>6498</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -2375,13 +2399,13 @@
         <v>5044</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -2390,13 +2414,13 @@
         <v>11543</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2411,13 +2435,13 @@
         <v>8427</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
         <v>14</v>
@@ -2426,10 +2450,10 @@
         <v>14609</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>101</v>
@@ -2835,7 +2859,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A25434CB-7709-420E-9C58-677C297B2E70}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBC21522-F7BD-4795-8B55-31186F901855}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2965,7 +2989,7 @@
         <v>145</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="H4" s="7">
         <v>13</v>
@@ -2974,13 +2998,13 @@
         <v>13072</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M4" s="7">
         <v>23</v>
@@ -2989,13 +3013,13 @@
         <v>22697</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3010,13 +3034,13 @@
         <v>33528</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>114</v>
+        <v>154</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H5" s="7">
         <v>25</v>
@@ -3025,13 +3049,13 @@
         <v>24442</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M5" s="7">
         <v>57</v>
@@ -3040,13 +3064,13 @@
         <v>57970</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3114,13 +3138,13 @@
         <v>9977</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -3129,13 +3153,13 @@
         <v>9358</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
@@ -3144,13 +3168,13 @@
         <v>19336</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3165,13 +3189,13 @@
         <v>28216</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H8" s="7">
         <v>46</v>
@@ -3180,13 +3204,13 @@
         <v>45692</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M8" s="7">
         <v>74</v>
@@ -3195,13 +3219,13 @@
         <v>73908</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3257,7 +3281,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3269,13 +3293,13 @@
         <v>5680</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H10" s="7">
         <v>19</v>
@@ -3284,13 +3308,13 @@
         <v>19110</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M10" s="7">
         <v>25</v>
@@ -3299,13 +3323,13 @@
         <v>24789</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3320,13 +3344,13 @@
         <v>26204</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H11" s="7">
         <v>45</v>
@@ -3335,13 +3359,13 @@
         <v>46675</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M11" s="7">
         <v>68</v>
@@ -3350,13 +3374,13 @@
         <v>72880</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3412,7 +3436,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3424,13 +3448,13 @@
         <v>2136</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -3439,13 +3463,13 @@
         <v>16340</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M13" s="7">
         <v>17</v>
@@ -3454,13 +3478,13 @@
         <v>18476</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3475,13 +3499,13 @@
         <v>20014</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H14" s="7">
         <v>31</v>
@@ -3490,13 +3514,13 @@
         <v>33775</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M14" s="7">
         <v>49</v>
@@ -3505,13 +3529,13 @@
         <v>53789</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3567,7 +3591,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3579,13 +3603,13 @@
         <v>8157</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -3594,13 +3618,13 @@
         <v>15016</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
@@ -3609,13 +3633,13 @@
         <v>23172</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3630,13 +3654,13 @@
         <v>10974</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H17" s="7">
         <v>22</v>
@@ -3645,13 +3669,13 @@
         <v>24688</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M17" s="7">
         <v>32</v>
@@ -3660,13 +3684,13 @@
         <v>35663</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3734,13 +3758,13 @@
         <v>4360</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -3749,13 +3773,13 @@
         <v>10598</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M19" s="7">
         <v>14</v>
@@ -3764,13 +3788,13 @@
         <v>14958</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3785,13 +3809,13 @@
         <v>8598</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H20" s="7">
         <v>20</v>
@@ -3800,13 +3824,13 @@
         <v>22805</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M20" s="7">
         <v>30</v>
@@ -3815,13 +3839,13 @@
         <v>31403</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3889,13 +3913,13 @@
         <v>39933</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H22" s="7">
         <v>77</v>
@@ -3904,13 +3928,13 @@
         <v>83494</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>110</v>
+        <v>256</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="M22" s="7">
         <v>116</v>
@@ -3919,13 +3943,13 @@
         <v>123427</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3940,13 +3964,13 @@
         <v>127536</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H23" s="7">
         <v>189</v>
@@ -3955,13 +3979,13 @@
         <v>198077</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>120</v>
+        <v>266</v>
       </c>
       <c r="M23" s="7">
         <v>310</v>
@@ -3970,13 +3994,13 @@
         <v>325613</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4054,7 +4078,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB47B3C0-650B-4E3E-92AB-646F0327118C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12853CC9-1118-458F-9F60-315C1FBFDB3A}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4071,7 +4095,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4178,13 +4202,13 @@
         <v>11230</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -4193,13 +4217,13 @@
         <v>4513</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -4208,13 +4232,13 @@
         <v>15743</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4229,13 +4253,13 @@
         <v>47521</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="H5" s="7">
         <v>20</v>
@@ -4244,13 +4268,13 @@
         <v>31071</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="M5" s="7">
         <v>41</v>
@@ -4259,13 +4283,13 @@
         <v>78591</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4333,13 +4357,13 @@
         <v>5450</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -4348,13 +4372,13 @@
         <v>15528</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
@@ -4363,13 +4387,13 @@
         <v>20978</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4384,13 +4408,13 @@
         <v>43128</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="H8" s="7">
         <v>49</v>
@@ -4399,13 +4423,13 @@
         <v>49695</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="M8" s="7">
         <v>79</v>
@@ -4414,13 +4438,13 @@
         <v>92823</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4476,7 +4500,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4488,13 +4512,13 @@
         <v>12208</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="H10" s="7">
         <v>18</v>
@@ -4503,13 +4527,13 @@
         <v>11390</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="M10" s="7">
         <v>29</v>
@@ -4518,13 +4542,13 @@
         <v>23598</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4539,13 +4563,13 @@
         <v>52184</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="H11" s="7">
         <v>82</v>
@@ -4554,13 +4578,13 @@
         <v>54848</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="M11" s="7">
         <v>133</v>
@@ -4569,13 +4593,13 @@
         <v>107032</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4631,7 +4655,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4643,13 +4667,13 @@
         <v>10972</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="H13" s="7">
         <v>28</v>
@@ -4658,13 +4682,13 @@
         <v>18085</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>218</v>
+        <v>330</v>
       </c>
       <c r="M13" s="7">
         <v>40</v>
@@ -4673,13 +4697,13 @@
         <v>29057</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4694,13 +4718,13 @@
         <v>59488</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="H14" s="7">
         <v>137</v>
@@ -4709,13 +4733,13 @@
         <v>89846</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>228</v>
+        <v>338</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="M14" s="7">
         <v>195</v>
@@ -4724,13 +4748,13 @@
         <v>149334</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4786,7 +4810,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4798,13 +4822,13 @@
         <v>7019</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="H16" s="7">
         <v>28</v>
@@ -4813,13 +4837,13 @@
         <v>16758</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="M16" s="7">
         <v>35</v>
@@ -4828,13 +4852,13 @@
         <v>23777</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>147</v>
+        <v>349</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4849,13 +4873,13 @@
         <v>39873</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="H17" s="7">
         <v>92</v>
@@ -4864,13 +4888,13 @@
         <v>54798</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="M17" s="7">
         <v>139</v>
@@ -4879,13 +4903,13 @@
         <v>94671</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>156</v>
+        <v>358</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4953,13 +4977,13 @@
         <v>2233</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="H19" s="7">
         <v>32</v>
@@ -4968,13 +4992,13 @@
         <v>19673</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="M19" s="7">
         <v>36</v>
@@ -4983,13 +5007,13 @@
         <v>21906</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5004,13 +5028,13 @@
         <v>35946</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="H20" s="7">
         <v>120</v>
@@ -5019,13 +5043,13 @@
         <v>64556</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="M20" s="7">
         <v>173</v>
@@ -5034,13 +5058,13 @@
         <v>100502</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5108,13 +5132,13 @@
         <v>49112</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="H22" s="7">
         <v>123</v>
@@ -5123,13 +5147,13 @@
         <v>85947</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="M22" s="7">
         <v>165</v>
@@ -5138,13 +5162,13 @@
         <v>135060</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5159,13 +5183,13 @@
         <v>278140</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="H23" s="7">
         <v>500</v>
@@ -5174,13 +5198,13 @@
         <v>344813</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="M23" s="7">
         <v>760</v>
@@ -5189,13 +5213,13 @@
         <v>622953</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
